--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="257">
   <si>
     <t>날짜</t>
   </si>
@@ -511,271 +511,160 @@
     <t>브레이브걸스</t>
   </si>
   <si>
-    <t xml:space="preserve"> 봄여름가을겨울 (Still Life) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE DIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I NEVER DIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취중고백 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 듣고 싶을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVU - The 3rd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조각집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELEVEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신호등 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abcdefu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOUNG-LUV.COM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 눈이 오잖아(Feat.헤이즈) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 번호를 누르고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Love </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IM HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Next Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> strawberry moon </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너를 생각해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekend </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 호랑수월가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세 번째 '고백' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love poem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별빛 같은 나의 사랑아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 항해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step Back </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Counting Stars </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Darl+ing </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's Hilarious </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bipolar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봄 사랑 벚꽃 말고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goodbye, grief. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤편지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAYDREAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취기를 빌려 (취향저격 그녀 X 산들) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤하늘의 별을 (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dear OHMYGIRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아무래도 난 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사계 (Four Seasons) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAPPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 늦은 밤 너의 집 앞 골목길에서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OHAYO MY NIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEXT EPISODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 버스커 버스커 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter / Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 추억은 만남보다 이별에 남아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내가 아니라도 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리들의 블루스 OST Part 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흰눈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비가 오는 날엔 (2021) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그날에 나는 맘이 편했을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can't Control Myself </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rollin' </t>
+    <t>I NEVER DIE</t>
+  </si>
+  <si>
+    <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
+  </si>
+  <si>
+    <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+  </si>
+  <si>
+    <t>GANADARA</t>
+  </si>
+  <si>
+    <t>INVU - The 3rd Album</t>
+  </si>
+  <si>
+    <t>조각집</t>
+  </si>
+  <si>
+    <t>ˣ‿ˣ (SMiLEY)</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+  </si>
+  <si>
+    <t>신사와 아가씨 OST Part.2</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>YOUNG-LUV.COM</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 2</t>
+  </si>
+  <si>
+    <t>IU 5th Album 'LILAC'</t>
+  </si>
+  <si>
+    <t>IM HERO</t>
+  </si>
+  <si>
+    <t>MSG워너비 1집</t>
+  </si>
+  <si>
+    <t>Glitch Mode - The 2nd Album</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 3</t>
+  </si>
+  <si>
+    <t>내일은 미스터트롯 우승자 특전곡</t>
+  </si>
+  <si>
+    <t>조영수 리메이크 프로젝트 Part.2</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 4</t>
+  </si>
+  <si>
+    <t>'키스 먼저 할까요?' OST Part.3</t>
+  </si>
+  <si>
+    <t>세 번째 '고백'</t>
+  </si>
+  <si>
+    <t>항해</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART56</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 1</t>
+  </si>
+  <si>
+    <t>Dynamite (DayTime Version)</t>
+  </si>
+  <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.2</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART62</t>
+  </si>
+  <si>
+    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+  </si>
+  <si>
+    <t>Goodbye, grief.</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART61</t>
+  </si>
+  <si>
+    <t>뽕숭아학당 PART23</t>
+  </si>
+  <si>
+    <t>Red Moon : Beyond The Light</t>
+  </si>
+  <si>
+    <t>Dreams Come True - SM STATION</t>
+  </si>
+  <si>
+    <t>Dear OHMYGIRL</t>
+  </si>
+  <si>
+    <t>별거 없던 그 하루로</t>
+  </si>
+  <si>
+    <t>HAPPEN</t>
+  </si>
+  <si>
+    <t>Savage - The 1st Mini Album</t>
+  </si>
+  <si>
+    <t>Stronger (Deluxe Version)</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART39</t>
+  </si>
+  <si>
+    <t>NEXT EPISODE</t>
+  </si>
+  <si>
+    <t>버스커 버스커 1집</t>
+  </si>
+  <si>
+    <t>Butter / Permission to Dance</t>
+  </si>
+  <si>
+    <t>Speak Your Mind  (Deluxe)</t>
+  </si>
+  <si>
+    <t>멜로가 체질 OST Part 3</t>
+  </si>
+  <si>
+    <t>최고의 사랑 OST - Part.4</t>
+  </si>
+  <si>
+    <t>우리들의 블루스 OST Part 2</t>
+  </si>
+  <si>
+    <t>Rollin'</t>
   </si>
   <si>
     <t>YG</t>
@@ -1296,13 +1185,13 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1319,13 +1208,13 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1342,13 +1231,13 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1365,13 +1254,13 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1388,13 +1277,13 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1411,13 +1300,13 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1434,13 +1323,13 @@
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1457,13 +1346,13 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1480,13 +1369,13 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1503,13 +1392,13 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1526,13 +1415,13 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1549,13 +1438,13 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1572,13 +1461,13 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1595,13 +1484,13 @@
         <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1618,13 +1507,13 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1641,13 +1530,13 @@
         <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1664,13 +1553,13 @@
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1687,13 +1576,13 @@
         <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G19" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1710,13 +1599,13 @@
         <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1733,13 +1622,13 @@
         <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1756,13 +1645,13 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1779,13 +1668,13 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1802,13 +1691,13 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1825,13 +1714,13 @@
         <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1848,13 +1737,13 @@
         <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1871,13 +1760,13 @@
         <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1894,13 +1783,13 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1917,13 +1806,13 @@
         <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1940,13 +1829,13 @@
         <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1963,13 +1852,13 @@
         <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1986,13 +1875,13 @@
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2009,13 +1898,13 @@
         <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2032,13 +1921,13 @@
         <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2055,13 +1944,13 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2078,13 +1967,13 @@
         <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2101,13 +1990,13 @@
         <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2124,13 +2013,13 @@
         <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2147,13 +2036,13 @@
         <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2170,13 +2059,13 @@
         <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2193,13 +2082,13 @@
         <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2216,13 +2105,13 @@
         <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2239,13 +2128,13 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2262,13 +2151,13 @@
         <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="G44" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2285,13 +2174,13 @@
         <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2308,13 +2197,13 @@
         <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2331,13 +2220,13 @@
         <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2354,13 +2243,13 @@
         <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2377,13 +2266,13 @@
         <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2400,13 +2289,13 @@
         <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2423,13 +2312,13 @@
         <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2446,13 +2335,13 @@
         <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G52" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2469,13 +2358,13 @@
         <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2492,13 +2381,13 @@
         <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2515,13 +2404,13 @@
         <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2537,14 +2426,14 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="E56" t="s">
-        <v>216</v>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2561,13 +2450,13 @@
         <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2584,13 +2473,13 @@
         <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G58" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2607,13 +2496,13 @@
         <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2630,13 +2519,13 @@
         <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2653,13 +2542,13 @@
         <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2676,13 +2565,13 @@
         <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2699,13 +2588,13 @@
         <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2722,13 +2611,13 @@
         <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2745,13 +2634,13 @@
         <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2768,13 +2657,13 @@
         <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F66" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G66" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2791,13 +2680,13 @@
         <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="G67" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2814,13 +2703,13 @@
         <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2837,13 +2726,13 @@
         <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2860,13 +2749,13 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G70" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2883,13 +2772,13 @@
         <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="G71" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2906,13 +2795,13 @@
         <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G72" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2929,13 +2818,13 @@
         <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G73" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2952,13 +2841,13 @@
         <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="G74" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2975,13 +2864,13 @@
         <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2998,13 +2887,13 @@
         <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3021,13 +2910,13 @@
         <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3044,13 +2933,13 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3067,13 +2956,13 @@
         <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G79" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3090,13 +2979,13 @@
         <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G80" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3113,13 +3002,13 @@
         <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="G81" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3136,13 +3025,13 @@
         <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F82" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G82" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3159,13 +3048,13 @@
         <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G83" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3182,13 +3071,13 @@
         <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3205,13 +3094,13 @@
         <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3228,13 +3117,13 @@
         <v>136</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3251,13 +3140,13 @@
         <v>157</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G87" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3274,13 +3163,13 @@
         <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G88" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3297,13 +3186,13 @@
         <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F89" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3320,13 +3209,13 @@
         <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="G90" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3343,13 +3232,13 @@
         <v>118</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="F91" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G91" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3366,13 +3255,13 @@
         <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G92" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3389,13 +3278,13 @@
         <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="G93" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3412,13 +3301,13 @@
         <v>162</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G94" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3435,13 +3324,13 @@
         <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G95" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3458,13 +3347,13 @@
         <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3481,13 +3370,13 @@
         <v>163</v>
       </c>
       <c r="E97" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="G97" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3504,13 +3393,13 @@
         <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3527,13 +3416,13 @@
         <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3550,13 +3439,13 @@
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G100" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3573,13 +3462,13 @@
         <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="G101" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-04-19</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220419_110028.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -733,7 +733,7 @@
     <t>NEXTAR</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>C-JeS</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>뮤직원컴퍼니</t>
@@ -1255,7 +1252,7 @@
         <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1307,7 +1304,7 @@
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,7 +1330,7 @@
         <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1356,7 @@
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1411,7 +1408,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1463,7 +1460,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1489,7 +1486,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1515,7 +1512,7 @@
         <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1567,7 +1564,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1590,7 @@
         <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1616,7 @@
         <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1642,7 @@
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1671,7 +1668,7 @@
         <v>233</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1697,7 +1694,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1720,7 @@
         <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1749,7 +1746,7 @@
         <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1775,7 +1772,7 @@
         <v>236</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1798,7 @@
         <v>227</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1827,7 +1824,7 @@
         <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1853,7 +1850,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1931,7 +1928,7 @@
         <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1983,7 +1980,7 @@
         <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +2006,7 @@
         <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,7 +2032,7 @@
         <v>230</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2061,7 +2058,7 @@
         <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2113,7 +2110,7 @@
         <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2136,7 @@
         <v>239</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2162,7 @@
         <v>240</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2188,7 @@
         <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2217,7 +2214,7 @@
         <v>223</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2243,7 +2240,7 @@
         <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2269,7 +2266,7 @@
         <v>230</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2373,7 +2370,7 @@
         <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2503,7 +2500,7 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2529,7 +2526,7 @@
         <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2555,7 +2552,7 @@
         <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2607,7 +2604,7 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,7 +2630,7 @@
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2659,7 +2656,7 @@
         <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2685,7 +2682,7 @@
         <v>244</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2708,7 @@
         <v>245</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2737,7 +2734,7 @@
         <v>227</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2763,7 +2760,7 @@
         <v>246</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2815,7 +2812,7 @@
         <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2841,7 +2838,7 @@
         <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2867,7 +2864,7 @@
         <v>230</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2890,7 @@
         <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2945,7 +2942,7 @@
         <v>248</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2971,7 +2968,7 @@
         <v>236</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2994,7 @@
         <v>249</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3023,7 +3020,7 @@
         <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3049,7 +3046,7 @@
         <v>237</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3075,7 +3072,7 @@
         <v>250</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3127,7 +3124,7 @@
         <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3179,7 +3176,7 @@
         <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3205,7 +3202,7 @@
         <v>231</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3231,7 +3228,7 @@
         <v>230</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3254,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3306,10 +3303,10 @@
         <v>212</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3413,7 +3410,7 @@
         <v>231</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3436,10 +3433,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3465,7 +3462,7 @@
         <v>239</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3488,10 +3485,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3517,7 +3514,7 @@
         <v>227</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3543,7 +3540,7 @@
         <v>251</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3569,7 +3566,7 @@
         <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3592,10 +3589,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3621,7 +3618,7 @@
         <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3647,7 +3644,7 @@
         <v>227</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,10 +3667,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3774,10 +3771,10 @@
         <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
